--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219642.3281560045</v>
+        <v>220671.4526765182</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322885</v>
+        <v>19087887.38355837</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257196</v>
+        <v>9612256.232354159</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5506345.456550654</v>
+        <v>5426626.487309223</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.3721011584466</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>143.4324547506683</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.4851730221162</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>117.9721911323852</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>278.4816097542801</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>131.975558987749</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>252.3216532481397</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>235.3721011584464</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>165.7685056510555</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>236.2449788946804</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>112.3865163399139</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.17849676495474</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>121.3481503778102</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>109.7290404931423</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.83205621563042</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>139.485173022116</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>310.2346339759272</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>88.66266823451896</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2324,13 +2326,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>247.6684388475993</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>92.38090300811096</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>133.9073134702965</v>
+        <v>51.58543740429438</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>58.67748875058466</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>88.07239589744455</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2804,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>74.03169761275359</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>71.94762989914921</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>223.7790684335266</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>170.7512152514382</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>70.13438451350402</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.1295862066223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>123.9086344760393</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>161.673798810038</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028899</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>262.1093982206</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>203.0845722362935</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>260.4446813871638</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3983,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>92.38090300811082</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.6566574884773</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>62.1051966052708</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.489174413579525</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,16 +4191,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.91199246082674</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M2" t="n">
-        <v>1728.043288159434</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P2" t="n">
         <v>1728.043288159434</v>
@@ -4364,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1700.718355616419</v>
       </c>
       <c r="X2" t="n">
-        <v>679.9988596356804</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.6615895905708</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484409</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O3" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.8845555819107</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C4" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1704.705508877583</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.521060377887</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.809592985916</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W4" t="n">
-        <v>867.9571891584293</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3932926042344</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y4" t="n">
-        <v>399.0505242939764</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>1020.413988704697</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M5" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N5" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
         <v>1845.599623041337</v>
@@ -4607,10 +4609,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.953707554057</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K6" t="n">
-        <v>393.2225928484407</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484407</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484407</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511716</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511716</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.4393219715645</v>
+        <v>375.0927614290572</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
         <v>76.20565529896515</v>
@@ -4753,22 +4755,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.075826767541</v>
+        <v>1590.729266225034</v>
       </c>
       <c r="V7" t="n">
-        <v>1040.36435937557</v>
+        <v>1309.017798833063</v>
       </c>
       <c r="W7" t="n">
-        <v>765.5119555480831</v>
+        <v>1034.165395005576</v>
       </c>
       <c r="X7" t="n">
-        <v>522.9480589938881</v>
+        <v>791.6014984513808</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.6052906836302</v>
+        <v>565.2587301411229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>441.2510548713781</v>
+        <v>274.6615895905705</v>
       </c>
       <c r="C8" t="n">
-        <v>441.2510548713781</v>
+        <v>274.6615895905705</v>
       </c>
       <c r="D8" t="n">
-        <v>441.2510548713781</v>
+        <v>274.6615895905705</v>
       </c>
       <c r="E8" t="n">
-        <v>441.2510548713781</v>
+        <v>274.6615895905705</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="M8" t="n">
+        <v>814.4714747539723</v>
+      </c>
+      <c r="N8" t="n">
         <v>1271.257381456703</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1728.043288159434</v>
       </c>
       <c r="O8" t="n">
         <v>1728.043288159434</v>
@@ -4838,16 +4840,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W8" t="n">
-        <v>1678.156688040271</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X8" t="n">
-        <v>1266.436689208018</v>
+        <v>679.9988596356802</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.0994191629081</v>
+        <v>274.6615895905705</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662884</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N9" t="n">
-        <v>950.4838058662884</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O9" t="n">
         <v>1388.813716338606</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.464575560472</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.464575560472</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W10" t="n">
-        <v>1675.464575560472</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1312.229525073126</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C11" t="n">
-        <v>885.3287950864262</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D11" t="n">
-        <v>462.0361742714265</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E11" t="n">
         <v>462.0361742714265</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L11" t="n">
-        <v>815.1719019525203</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.957808655251</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.957808655251</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O11" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5078,13 +5080,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1732.077889364656</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>1732.077889364656</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.077889364656</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="12">
@@ -5100,46 +5102,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>501.1445421254695</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L12" t="n">
-        <v>501.1445421254695</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1445421254695</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N12" t="n">
-        <v>957.9304488282003</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O12" t="n">
-        <v>957.9304488282003</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P12" t="n">
-        <v>1414.716355530931</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>629.9631182453602</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="C13" t="n">
-        <v>457.9905551242762</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9905551242762</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="E13" t="n">
-        <v>291.7823492771297</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="F13" t="n">
-        <v>119.9205750516901</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5224,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V13" t="n">
-        <v>1563.888155649366</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W13" t="n">
-        <v>1289.035751821879</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X13" t="n">
-        <v>1046.471855267684</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.1290869574259</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1433.879624209084</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.305734938569</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D14" t="n">
         <v>888.013114123569</v>
@@ -5264,16 +5266,16 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
@@ -5285,16 +5287,16 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M14" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N14" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5318,10 +5320,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M15" t="n">
-        <v>950.4838058662885</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662885</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O15" t="n">
-        <v>950.4838058662885</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4393219715645</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C16" t="n">
-        <v>106.4393219715645</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D16" t="n">
-        <v>106.4393219715645</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E16" t="n">
-        <v>106.4393219715645</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L16" t="n">
-        <v>303.8948463526241</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M16" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O16" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P16" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5464,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1602.260275267237</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.075826767541</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V16" t="n">
-        <v>1040.36435937557</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W16" t="n">
-        <v>765.5119555480831</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X16" t="n">
-        <v>522.9480589938881</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.6052906836302</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1624.67405208597</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L17" t="n">
-        <v>493.6978991635576</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M17" t="n">
-        <v>950.4838058662885</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N17" t="n">
-        <v>1407.269712569019</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O17" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W17" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X17" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.67405208597</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M18" t="n">
-        <v>932.0278096358747</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N18" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.4702432027651</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K19" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M19" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1806.305960203198</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786372</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.940779286676</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>870.229311894705</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>595.376908067218</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>352.8130115130231</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.4702432027651</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5738,58 +5740,58 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M20" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N20" t="n">
-        <v>1696.494830002562</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O20" t="n">
-        <v>1696.494830002562</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P20" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X20" t="n">
         <v>2165.64106180522</v>
@@ -5811,40 +5813,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L21" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M21" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N21" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O21" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P21" t="n">
         <v>1853.185855629757</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5932,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.872639149549</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>2177.872639149549</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>2177.872639149549</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2187.043752385067</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C23" t="n">
-        <v>1760.143022398368</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D23" t="n">
-        <v>1336.850401583368</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E23" t="n">
-        <v>910.8734617312255</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F23" t="n">
-        <v>485.7492799206257</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>796.9185254855734</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>1726.54357310485</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="M23" t="n">
-        <v>1793.029687362017</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N23" t="n">
-        <v>2769.280745848718</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O23" t="n">
-        <v>3614.42539599953</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P23" t="n">
-        <v>3614.42539599953</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q23" t="n">
-        <v>4070.510875503714</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.340735253613</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>3423.94938555396</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="X23" t="n">
-        <v>3012.229386721707</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="Y23" t="n">
-        <v>2606.892116676598</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2828.946735954659</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>2711.440832472164</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>2607.600873987449</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>2502.898940260387</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>2409.253109943291</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>2315.199338160895</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>2261.823244923205</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>2261.823244923205</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>2261.823244923205</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>2261.823244923205</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="L24" t="n">
-        <v>2261.823244923205</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M24" t="n">
-        <v>3063.059433816545</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N24" t="n">
-        <v>4070.510875503714</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O24" t="n">
-        <v>4070.510875503714</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P24" t="n">
-        <v>4070.510875503714</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q24" t="n">
-        <v>4070.510875503714</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>4070.510875503714</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>3989.186628064968</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>3847.306692362647</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>3662.538496282283</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>3457.565357421549</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>3261.043980254767</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>3097.56663402143</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>2957.873745374722</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.5619166362569</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C25" t="n">
-        <v>964.5619166362569</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="D25" t="n">
-        <v>829.3020040399978</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E25" t="n">
-        <v>663.0937981928513</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F25" t="n">
-        <v>491.2320239674117</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G25" t="n">
-        <v>324.9750542616439</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H25" t="n">
-        <v>181.1787857697983</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I25" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9015457342323</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K25" t="n">
-        <v>365.4291469400695</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L25" t="n">
-        <v>720.1184682344903</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M25" t="n">
-        <v>1111.304263204741</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1488.795774080777</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1844.22390276054</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2134.823114682441</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.784631610376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2044.649584129511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>1801.310236355411</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1521.125787855715</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1239.414320463744</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>964.5619166362569</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X25" t="n">
-        <v>964.5619166362569</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.5619166362569</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1318.891967526989</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.891967526989</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D26" t="n">
-        <v>895.5993467119897</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E26" t="n">
-        <v>469.6224068598473</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M26" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N26" t="n">
-        <v>667.4947029893171</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O26" t="n">
         <v>1218.160237973755</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958194</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2135.949236404352</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2135.949236404352</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>2135.949236404352</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>2135.949236404352</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X26" t="n">
-        <v>1724.229237572099</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y26" t="n">
-        <v>1318.891967526989</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="27">
@@ -6285,43 +6287,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L27" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M27" t="n">
-        <v>602.6104029955975</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N27" t="n">
-        <v>1153.275937980036</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.5772905989112</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C28" t="n">
-        <v>96.60472747782725</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D28" t="n">
-        <v>44.49822504924753</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E28" t="n">
-        <v>44.49822504924753</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.213795394888</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.502328002917</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W28" t="n">
-        <v>927.6499241754298</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X28" t="n">
-        <v>685.0860276212348</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y28" t="n">
-        <v>458.7432593109769</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.792697513689</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.891967526989</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O29" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="X29" t="n">
-        <v>2165.64106180522</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="Y29" t="n">
-        <v>2165.64106180522</v>
+        <v>2150.131759924241</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336857</v>
+        <v>287.709308798102</v>
       </c>
       <c r="M30" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N30" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O30" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C31" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D31" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6646,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="32">
@@ -6683,61 +6685,61 @@
         <v>470.47516490139</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L32" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="M32" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="N32" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M32" t="n">
-        <v>1696.494830002562</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="O32" t="n">
-        <v>2224.911252462377</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.236878826872</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="W32" t="n">
-        <v>2152.236878826872</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="X32" t="n">
         <v>1740.51687999462</v>
@@ -6759,37 +6761,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M33" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
         <v>1853.185855629757</v>
@@ -6853,7 +6855,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6877,28 +6879,28 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T34" t="n">
-        <v>1835.261616667232</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U34" t="n">
-        <v>1835.261616667232</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V34" t="n">
-        <v>1835.261616667232</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.409212839745</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>1317.84531628555</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
         <v>1317.84531628555</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1780.689568770218</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="C35" t="n">
-        <v>1353.788838783518</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D35" t="n">
-        <v>930.4962179685185</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E35" t="n">
-        <v>504.5192781163761</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F35" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G35" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L35" t="n">
-        <v>572.914647509062</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M35" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N35" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>2154.068439822473</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462377</v>
+        <v>1742.34844099022</v>
       </c>
       <c r="Y35" t="n">
-        <v>2200.537933061748</v>
+        <v>1742.34844099022</v>
       </c>
     </row>
     <row r="36">
@@ -6996,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M36" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N36" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1009.274747666399</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C37" t="n">
-        <v>837.302184545315</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D37" t="n">
-        <v>673.9854116720857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E37" t="n">
-        <v>507.7772058249392</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F37" t="n">
-        <v>335.9154315994996</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G37" t="n">
-        <v>169.6584618937317</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7117,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V37" t="n">
-        <v>1943.199785070404</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W37" t="n">
-        <v>1668.347381242917</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X37" t="n">
-        <v>1425.783484688723</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y37" t="n">
-        <v>1199.440716378465</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="38">
@@ -7160,58 +7162,58 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M38" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N38" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O38" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P38" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="W38" t="n">
-        <v>2224.911252462377</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X38" t="n">
         <v>2165.64106180522</v>
@@ -7233,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L39" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002562</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7327,46 +7329,46 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V40" t="n">
-        <v>2061.60438497749</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="W40" t="n">
         <v>1786.751981150003</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C41" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D41" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E41" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F41" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M41" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N41" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2019.775320910565</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.285906036814</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>1265.894556337161</v>
+        <v>1828.519902762722</v>
       </c>
       <c r="X41" t="n">
-        <v>854.1745575049085</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y41" t="n">
-        <v>448.8372874597989</v>
+        <v>1011.46263388536</v>
       </c>
     </row>
     <row r="42">
@@ -7470,40 +7472,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8547856608809</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M42" t="n">
+        <v>201.1892506764434</v>
+      </c>
+      <c r="N42" t="n">
+        <v>751.8547856608814</v>
+      </c>
+      <c r="O42" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1853.185855629757</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C43" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D43" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E43" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F43" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7603,16 +7605,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V43" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W43" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X43" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y43" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>887.1053432625264</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C44" t="n">
-        <v>460.2046132758265</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="D44" t="n">
-        <v>36.91199246082674</v>
+        <v>137.8122684917837</v>
       </c>
       <c r="E44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L44" t="n">
-        <v>932.7282368344229</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M44" t="n">
-        <v>932.7282368344229</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N44" t="n">
-        <v>932.7282368344229</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O44" t="n">
-        <v>932.7282368344229</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X44" t="n">
-        <v>1433.879624209084</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y44" t="n">
-        <v>1306.953707554057</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>36.91199246082674</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="L45" t="n">
-        <v>36.91199246082674</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="M45" t="n">
-        <v>493.6978991635576</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="N45" t="n">
-        <v>493.6978991635576</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="O45" t="n">
-        <v>950.4838058662885</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P45" t="n">
-        <v>1407.269712569019</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>773.0525942098534</v>
+        <v>701.3071558651718</v>
       </c>
       <c r="C46" t="n">
-        <v>601.0800310887694</v>
+        <v>529.3345927440878</v>
       </c>
       <c r="D46" t="n">
-        <v>437.7632582155401</v>
+        <v>529.3345927440878</v>
       </c>
       <c r="E46" t="n">
-        <v>375.0307363920342</v>
+        <v>363.1263868969413</v>
       </c>
       <c r="F46" t="n">
-        <v>203.1689621665946</v>
+        <v>363.1263868969413</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>196.8694171911735</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>53.07314869932785</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1573.198076505455</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T46" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U46" t="n">
-        <v>1432.125227786372</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V46" t="n">
-        <v>1432.125227786372</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.125227786372</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X46" t="n">
-        <v>1189.561331232177</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.2185629219191</v>
+        <v>701.3071558651718</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>456.5787613602907</v>
+        <v>361.4449756170225</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8055,7 +8057,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>375.4846162958657</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O3" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8137,10 +8139,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L4" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,13 +8221,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M5" t="n">
-        <v>480.8962504457604</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8234,7 +8236,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,25 +8294,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>100.3451612536475</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>375.4846162958659</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q6" t="n">
         <v>484.1469440493127</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>457.4595408934817</v>
+        <v>362.3257551502136</v>
       </c>
       <c r="M8" t="n">
         <v>498.831168659766</v>
@@ -8465,7 +8467,7 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8532,19 +8534,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>465.9293750477954</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>363.0332573709691</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M11" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>465.2725720398028</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.1348740725161</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8933,19 +8935,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>456.4271212953047</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>191.487466684572</v>
       </c>
       <c r="P15" t="n">
-        <v>464.5283265304016</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,13 +9087,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>480.1484446815972</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
-        <v>465.8542658379009</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>452.2898123070839</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q20" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,25 +9479,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>179.6167914733347</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>461.830509216993</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,19 +9640,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>548.8576414812761</v>
       </c>
       <c r="M23" t="n">
-        <v>104.5889540682875</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9659,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958124</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M24" t="n">
-        <v>832.4262642429745</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1038.97074708947</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>110.3411813754879</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9957,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733354</v>
       </c>
       <c r="O27" t="n">
-        <v>261.3177895070124</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,22 +10114,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>571.3293238908518</v>
+        <v>571.3293238908516</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10194,22 +10196,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767089</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P30" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,28 +10351,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N32" t="n">
-        <v>571.0335849150666</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>462.4589018454977</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L35" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
@@ -10607,7 +10609,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,19 +10670,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10823,28 +10825,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>110.6369203512731</v>
+        <v>452.5855512828691</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>180.0446044646217</v>
+        <v>549.2245073196785</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11063,25 +11065,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>451.1348640772358</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>548.1209608588841</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061478</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q45" t="n">
-        <v>465.5045236145516</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11470,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>297.533877966958</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.2777794901682</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22604,10 +22606,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>248.9949814519883</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>101.4207812742428</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>154.1316886568268</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>144.1501129325528</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22796,10 +22798,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22847,7 +22849,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>275.6272398561812</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22993,10 +22995,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>25.06095076655902</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -23030,10 +23032,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>185.5008388340474</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23078,10 +23080,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>226.6589305516011</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,22 +23229,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3.893278693972519</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>280.0409198627427</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>82.41590324375544</v>
+        <v>75.93173177419166</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23464,13 +23466,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>301.2835723090227</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>309.3306541137074</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23662,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3111002675548</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23704,7 +23706,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>101.420781274243</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>112.3970887109056</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -23798,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>342.6064085940741</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.59016925535418</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23899,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>295.2370319744285</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24263,10 +24265,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>106.2460818774137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>300.0465331945456</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>27.77629167420045</v>
+        <v>110.0981677402026</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>236.2122059901209</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24494,7 +24496,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>130.6439193483686</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -24506,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>153.4739695386594</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24737,13 +24739,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>279.8828231122594</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24971,16 +24973,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>281.9668908258638</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>183.8237304104036</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>70.15473904492077</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>322.2930516891525</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.1543111380362</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>18.44967133088781</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>160.0388264952287</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -25454,7 +25456,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25600,16 +25602,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080134</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>79.2321554863222</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>153.5404824280147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25682,10 +25684,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>52.68678807325836</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>18.44967133088761</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>329.3362674455102</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>275.6272398561813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>102.4409271834042</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>90.28170816354726</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436145.8731875208</v>
+        <v>436145.8731875207</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436145.8731875207</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491447.4090335224</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698190.8974240895</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491447.4090335225</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491447.4090335225</v>
+        <v>491447.4090335222</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491447.4090335225</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491447.4090335225</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491447.4090335225</v>
+        <v>491447.4090335222</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436145.8731875207</v>
+        <v>491447.4090335222</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>97727.09030973139</v>
+      </c>
+      <c r="C2" t="n">
         <v>97727.09030973141</v>
       </c>
-      <c r="C2" t="n">
-        <v>97727.09030973137</v>
-      </c>
       <c r="D2" t="n">
-        <v>97727.09030973136</v>
+        <v>97727.09030973143</v>
       </c>
       <c r="E2" t="n">
-        <v>97727.09030973136</v>
+        <v>97727.09030973139</v>
       </c>
       <c r="F2" t="n">
-        <v>97727.0903097314</v>
+        <v>97727.09030973141</v>
       </c>
       <c r="G2" t="n">
-        <v>97727.0903097314</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="H2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="I2" t="n">
-        <v>156440.7659930588</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="J2" t="n">
         <v>110117.9244799721</v>
       </c>
       <c r="K2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="L2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="M2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="N2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="O2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="P2" t="n">
-        <v>97727.09030973137</v>
+        <v>110117.9244799721</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746637</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146122</v>
       </c>
       <c r="C4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146122</v>
       </c>
       <c r="D4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146123</v>
       </c>
       <c r="E4" t="n">
         <v>8050.273149146124</v>
@@ -26430,34 +26432,34 @@
         <v>8050.273149146124</v>
       </c>
       <c r="G4" t="n">
-        <v>8050.273149146124</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="H4" t="n">
+        <v>9081.11648698882</v>
+      </c>
+      <c r="I4" t="n">
         <v>9081.116486988822</v>
       </c>
-      <c r="I4" t="n">
-        <v>12934.90001016713</v>
-      </c>
       <c r="J4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988818</v>
       </c>
       <c r="K4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="L4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="M4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="N4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="O4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988818</v>
       </c>
       <c r="P4" t="n">
-        <v>8050.273149146124</v>
+        <v>9081.11648698882</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-126629.6177277635</v>
       </c>
       <c r="C6" t="n">
-        <v>27996.10289035694</v>
+        <v>27996.10289035698</v>
       </c>
       <c r="D6" t="n">
-        <v>27996.10289035691</v>
+        <v>27996.102890357</v>
       </c>
       <c r="E6" t="n">
-        <v>61623.70289035691</v>
+        <v>61623.70289035694</v>
       </c>
       <c r="F6" t="n">
         <v>61623.70289035697</v>
       </c>
       <c r="G6" t="n">
-        <v>61623.70289035697</v>
+        <v>41227.2499680888</v>
       </c>
       <c r="H6" t="n">
-        <v>41632.7340999399</v>
+        <v>67218.1569555552</v>
       </c>
       <c r="I6" t="n">
-        <v>-41061.82366445865</v>
+        <v>67218.15695555517</v>
       </c>
       <c r="J6" t="n">
-        <v>67218.1569555552</v>
+        <v>-53504.35998720168</v>
       </c>
       <c r="K6" t="n">
-        <v>67218.15695555523</v>
+        <v>67218.15695555518</v>
       </c>
       <c r="L6" t="n">
-        <v>67218.15695555524</v>
+        <v>67218.15695555518</v>
       </c>
       <c r="M6" t="n">
-        <v>67218.15695555523</v>
+        <v>67218.15695555515</v>
       </c>
       <c r="N6" t="n">
-        <v>67218.15695555523</v>
+        <v>67218.15695555515</v>
       </c>
       <c r="O6" t="n">
-        <v>67218.15695555526</v>
+        <v>44397.72622260459</v>
       </c>
       <c r="P6" t="n">
-        <v>61623.70289035694</v>
+        <v>67218.15695555514</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>461.399905760334</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>419.1474984608589</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>352.3878357835378</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34857,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M5" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>77.94592742031416</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>352.3878357835379</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>419.1474984608587</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>324.7212149383462</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>352.3878357835376</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,19 +35655,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
-        <v>419.1474984608587</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="P15" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>442.7574853255731</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q20" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="M23" t="n">
-        <v>67.15769116885573</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M24" t="n">
-        <v>809.3294837306465</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1017.627718875928</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="O27" t="n">
-        <v>238.1458997847902</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>533.7539620806206</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P30" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N32" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>440.0596680121644</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L35" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>73.06155854104179</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2737632597931</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486528</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>437.0840165728145</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q45" t="n">
-        <v>442.7574853255731</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38190,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>275.1530773089715</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220671.4526765182</v>
+        <v>215093.984230358</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.38355837</v>
+        <v>18796139.2690746</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9612256.232354159</v>
+        <v>9326313.90534861</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5426626.487309223</v>
+        <v>5574190.714472616</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.4324547506683</v>
+        <v>131.975558987749</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>117.9721911323852</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>134.8617396240858</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>278.4816097542801</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28.65193780215786</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>252.3216532481397</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>189.6767517149819</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>235.3721011584464</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>53.09658924790577</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>68.83205621562998</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>118.6969557927503</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>336.4558456696458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>88.66266823451852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>79.39435734996587</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>109.7290404931423</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>323.79718873048</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>77.66082860342419</v>
       </c>
       <c r="T16" t="n">
-        <v>139.485173022116</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1852,10 +1852,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>190.7652394963197</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.42473440164109</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2083,22 +2083,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>238.8869537746428</v>
       </c>
       <c r="V20" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>121.8235736002272</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>124.2378744910464</v>
       </c>
       <c r="W23" t="n">
-        <v>92.38090300811096</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429438</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>58.67748875058466</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>117.8991100991913</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>132.8360086854348</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760393</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2800,19 +2800,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>74.03169761275359</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>404.2584953982536</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1055716303386</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.142362585615695</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>223.7790684335266</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>128.9578433053833</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>70.13438451350402</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3508,22 +3508,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>141.2241184056204</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>167.8164790129221</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3717,13 +3717,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>192.8717243028899</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.1093982206</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>274.47038034049</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>181.0654791282078</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>92.38090300811082</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>167.6065328808449</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.489174413579525</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.8127224475267</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082673</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="M2" t="n">
-        <v>814.4714747539723</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539723</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O2" t="n">
         <v>1271.257381456703</v>
@@ -4369,13 +4369,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1700.718355616419</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="X2" t="n">
-        <v>1288.998356784166</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="Y2" t="n">
-        <v>883.6610867390567</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023297</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="L3" t="n">
-        <v>316.0561247023297</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484411</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4482,31 +4482,31 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4515,22 +4515,22 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>1798.56100972851</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y4" t="n">
         <v>1210.490515437405</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.413988704697</v>
+        <v>916.0466945778373</v>
       </c>
       <c r="C5" t="n">
-        <v>739.1194333973433</v>
+        <v>489.1459645911374</v>
       </c>
       <c r="D5" t="n">
-        <v>739.1194333973433</v>
+        <v>65.85334377613771</v>
       </c>
       <c r="E5" t="n">
-        <v>739.1194333973433</v>
+        <v>65.85334377613771</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M5" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N5" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1440.262352996227</v>
+        <v>1335.895058869367</v>
       </c>
     </row>
     <row r="6">
@@ -4628,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511719</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511719</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>375.0927614290572</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>203.1201983079732</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>203.1201983079732</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082673</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U7" t="n">
-        <v>1590.729266225034</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V7" t="n">
-        <v>1309.017798833063</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="W7" t="n">
-        <v>1034.165395005576</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="X7" t="n">
-        <v>791.6014984513808</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.2587301411229</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.6615895905705</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C8" t="n">
-        <v>274.6615895905705</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D8" t="n">
-        <v>274.6615895905705</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E8" t="n">
-        <v>274.6615895905705</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082673</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>357.6855680512415</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539723</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1488.110208167586</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1091.718858467933</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="X8" t="n">
-        <v>679.9988596356802</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.6615895905705</v>
+        <v>1230.141144670584</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082673</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>950.4838058662883</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.4393219715641</v>
+        <v>737.483955463365</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082673</v>
+        <v>737.483955463365</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082673</v>
+        <v>574.1671825901357</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082673</v>
+        <v>407.9589767429892</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082673</v>
+        <v>407.9589767429892</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082673</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T10" t="n">
-        <v>1602.260275267236</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.075826767541</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.36435937557</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W10" t="n">
-        <v>765.5119555480826</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X10" t="n">
-        <v>522.9480589938877</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="Y10" t="n">
-        <v>296.6052906836297</v>
+        <v>927.6499241754307</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.206464925269</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.305734938569</v>
+        <v>1693.643228348817</v>
       </c>
       <c r="D11" t="n">
-        <v>888.013114123569</v>
+        <v>1270.350607533817</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0361742714265</v>
+        <v>844.3736676816749</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>419.2494858710751</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082673</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082673</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>475.2419029331443</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>932.0278096358751</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.813716338606</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082673</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L12" t="n">
-        <v>475.2419029331443</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358751</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N12" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O12" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S12" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U12" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V12" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.4702432027646</v>
+        <v>631.8973991473408</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4702432027646</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="D13" t="n">
-        <v>126.4702432027646</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E13" t="n">
-        <v>126.4702432027646</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F13" t="n">
-        <v>126.4702432027646</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q13" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786371</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V13" t="n">
-        <v>870.2293118947046</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W13" t="n">
-        <v>595.3769080672175</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130226</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027646</v>
+        <v>822.0633678594065</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1425.751258749807</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="C14" t="n">
-        <v>998.8505287631067</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="D14" t="n">
-        <v>888.013114123569</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="E14" t="n">
-        <v>462.0361742714265</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1271.957808655251</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.957808655251</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1314.195610572037</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1314.195610572037</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>908.8583405269275</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C15" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>765.3953884431487</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>765.3953884431487</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M15" t="n">
-        <v>765.3953884431487</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N15" t="n">
-        <v>1222.18129514588</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S15" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U15" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V15" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.8845555819107</v>
+        <v>360.2670566621771</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082673</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082673</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082673</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082673</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082673</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K16" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L16" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>2099.42735773195</v>
       </c>
       <c r="T16" t="n">
-        <v>1704.705508877583</v>
+        <v>1856.088009957849</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.521060377887</v>
+        <v>1575.903561458154</v>
       </c>
       <c r="V16" t="n">
-        <v>1142.809592985916</v>
+        <v>1294.192094066183</v>
       </c>
       <c r="W16" t="n">
-        <v>867.9571891584293</v>
+        <v>1019.339690238696</v>
       </c>
       <c r="X16" t="n">
-        <v>625.3932926042344</v>
+        <v>776.7757936845007</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.0505242939764</v>
+        <v>550.4330253742428</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>1122.28060821487</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>695.3798782281697</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>272.0872574131699</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>272.0872574131699</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L17" t="n">
-        <v>407.101683866143</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M17" t="n">
-        <v>957.767218850581</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N17" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O17" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>1542.1289725064</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>1145.829295018124</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M18" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>388.3325623957711</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C19" t="n">
-        <v>216.3599992746871</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D19" t="n">
-        <v>216.3599992746871</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3599992746871</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924752</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924752</v>
+        <v>100.4828052529254</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
         <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S19" t="n">
-        <v>2127.492863465543</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T19" t="n">
-        <v>1884.153515691443</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U19" t="n">
-        <v>1603.969067191748</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.257599799776</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.405195972289</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X19" t="n">
-        <v>804.8412994180946</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.4985311078367</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M20" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N20" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O20" t="n">
-        <v>1556.689382596035</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>1983.611299154657</v>
       </c>
       <c r="V20" t="n">
-        <v>2165.64106180522</v>
+        <v>1983.611299154657</v>
       </c>
       <c r="W20" t="n">
-        <v>2165.64106180522</v>
+        <v>1983.611299154657</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>1571.891300322404</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>1166.554030277294</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L21" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M21" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N21" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O21" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>388.3325623957711</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C22" t="n">
-        <v>216.3599992746871</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="D22" t="n">
-        <v>216.3599992746871</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="E22" t="n">
-        <v>216.3599992746871</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="F22" t="n">
-        <v>44.49822504924752</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2127.492863465543</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>1884.153515691443</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U22" t="n">
-        <v>1603.969067191748</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.257599799776</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W22" t="n">
-        <v>1047.405195972289</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X22" t="n">
-        <v>804.8412994180946</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y22" t="n">
-        <v>578.4985311078367</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>894.6915758509472</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C23" t="n">
-        <v>467.7908458642473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D23" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>549.9383681074142</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M23" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N23" t="n">
-        <v>1651.26943807629</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O23" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1995.051155819308</v>
       </c>
       <c r="W23" t="n">
-        <v>2131.59720901984</v>
+        <v>1598.659806119655</v>
       </c>
       <c r="X23" t="n">
-        <v>1719.877210187587</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="Y23" t="n">
-        <v>1314.539940142477</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7093087981018</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>838.3748437825399</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M24" t="n">
-        <v>838.3748437825399</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N24" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O24" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P24" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.5772905989117</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>96.60472747782771</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
         <v>1074.392270743914</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754302</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212353</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109774</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1805.062888170846</v>
+        <v>1336.61182855517</v>
       </c>
       <c r="C26" t="n">
-        <v>1378.162158184146</v>
+        <v>909.7110985684701</v>
       </c>
       <c r="D26" t="n">
-        <v>954.869537369146</v>
+        <v>909.7110985684701</v>
       </c>
       <c r="E26" t="n">
-        <v>528.8925975170035</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F26" t="n">
-        <v>103.7684157064037</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G26" t="n">
-        <v>103.7684157064037</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>957.767218850581</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
-        <v>957.767218850581</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N26" t="n">
-        <v>957.767218850581</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O26" t="n">
-        <v>1218.160237973755</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958193</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462376</v>
+        <v>1748.331827387423</v>
       </c>
       <c r="X26" t="n">
-        <v>2224.911252462376</v>
+        <v>1336.61182855517</v>
       </c>
       <c r="Y26" t="n">
-        <v>2224.911252462376</v>
+        <v>1336.61182855517</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336854</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>1145.829295018124</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>884.1145108219148</v>
+        <v>511.1411871531062</v>
       </c>
       <c r="C28" t="n">
-        <v>712.1419477008308</v>
+        <v>511.1411871531062</v>
       </c>
       <c r="D28" t="n">
-        <v>548.8251748276015</v>
+        <v>376.9634006021619</v>
       </c>
       <c r="E28" t="n">
-        <v>382.616968980455</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F28" t="n">
         <v>210.7551947550154</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U28" t="n">
-        <v>2099.751015617891</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V28" t="n">
-        <v>1818.03954822592</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W28" t="n">
-        <v>1543.187144398433</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X28" t="n">
-        <v>1300.623247844238</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y28" t="n">
-        <v>1074.28047953398</v>
+        <v>701.3071558651718</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2150.131759924241</v>
+        <v>1354.712628918076</v>
       </c>
       <c r="C29" t="n">
-        <v>1723.231029937541</v>
+        <v>927.8118989313758</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.938409122541</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9614692703988</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002561</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O29" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V29" t="n">
-        <v>2150.131759924241</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W29" t="n">
-        <v>2150.131759924241</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X29" t="n">
-        <v>2150.131759924241</v>
+        <v>1354.712628918076</v>
       </c>
       <c r="Y29" t="n">
-        <v>2150.131759924241</v>
+        <v>1354.712628918076</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>287.709308798102</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M30" t="n">
-        <v>838.37484378254</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N30" t="n">
-        <v>838.37484378254</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2061.60438497749</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>2061.60438497749</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>2061.60438497749</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>807.3383084402755</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>380.4375784535756</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>380.4375784535756</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>380.4375784535756</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>380.4375784535756</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L32" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O32" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U32" t="n">
-        <v>1966.556343058788</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V32" t="n">
-        <v>1966.556343058788</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W32" t="n">
-        <v>1966.556343058788</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.51687999462</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.51687999462</v>
+        <v>807.3383084402755</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>751.8547856608814</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1322.50007669869</v>
+        <v>1357.717273416657</v>
       </c>
       <c r="C35" t="n">
-        <v>895.5993467119897</v>
+        <v>930.8165434299567</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>507.523922614957</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>507.523922614957</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M35" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N35" t="n">
-        <v>1556.689382596035</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O35" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W35" t="n">
-        <v>2154.068439822473</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X35" t="n">
-        <v>1742.34844099022</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="Y35" t="n">
-        <v>1742.34844099022</v>
+        <v>1357.717273416657</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1745.792697513689</v>
+        <v>946.8148294705832</v>
       </c>
       <c r="C38" t="n">
-        <v>1318.891967526989</v>
+        <v>519.9140994838833</v>
       </c>
       <c r="D38" t="n">
-        <v>895.5993467119897</v>
+        <v>519.9140994838833</v>
       </c>
       <c r="E38" t="n">
-        <v>469.6224068598473</v>
+        <v>519.9140994838833</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>519.9140994838833</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336854</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N38" t="n">
-        <v>1696.494830002561</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O38" t="n">
-        <v>1696.494830002561</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2165.64106180522</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U38" t="n">
-        <v>2165.64106180522</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V38" t="n">
-        <v>2165.64106180522</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W38" t="n">
-        <v>2165.64106180522</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X38" t="n">
-        <v>2165.64106180522</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="Y38" t="n">
-        <v>2165.64106180522</v>
+        <v>1366.663193762113</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M39" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N39" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O39" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P39" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H40" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7365,19 +7365,19 @@
         <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>1981.571904688275</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V40" t="n">
-        <v>1981.571904688275</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>746.7056659857641</v>
+        <v>1227.456825633441</v>
       </c>
       <c r="C41" t="n">
-        <v>746.7056659857641</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="D41" t="n">
-        <v>746.7056659857641</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E41" t="n">
-        <v>746.7056659857641</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F41" t="n">
-        <v>746.7056659857641</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G41" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924752</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M41" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N41" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O41" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P41" t="n">
-        <v>1696.494830002561</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W41" t="n">
-        <v>1828.519902762722</v>
+        <v>1227.456825633441</v>
       </c>
       <c r="X41" t="n">
-        <v>1416.79990393047</v>
+        <v>1227.456825633441</v>
       </c>
       <c r="Y41" t="n">
-        <v>1011.46263388536</v>
+        <v>1227.456825633441</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>554.589532101539</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7590,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>744.7555008136046</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>744.7555008136046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>988.0056192934833</v>
+        <v>1333.927509518027</v>
       </c>
       <c r="C44" t="n">
-        <v>561.1048893067834</v>
+        <v>907.0267795313274</v>
       </c>
       <c r="D44" t="n">
-        <v>137.8122684917837</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924752</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>1145.829295018124</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.911252462376</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.191253630123</v>
+        <v>1333.927509518027</v>
       </c>
       <c r="Y44" t="n">
-        <v>1407.853983585013</v>
+        <v>1333.927509518027</v>
       </c>
     </row>
     <row r="45">
@@ -7709,40 +7709,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
         <v>1307.021068682275</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.3071558651718</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3345927440878</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>529.3345927440878</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>363.1263868969413</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>363.1263868969413</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>196.8694171911735</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>53.07314869932785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7830,28 +7830,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>927.6499241754298</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>701.3071558651718</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>359.7783135124</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8060,16 +8060,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>100.3451612536478</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>101.0427079326425</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>484.5717954825564</v>
@@ -8078,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929571</v>
+        <v>458.1670431142372</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>375.4846162958659</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982026</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>362.3257551502136</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163582</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,10 +8549,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8625,13 +8625,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>481.0695277581962</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163582</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>465.2725720398028</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726621</v>
+        <v>173.8486821944324</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738758</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>457.1346235160601</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>191.487466684572</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,7 +9093,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>181.6704383876108</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9333,7 +9333,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>452.2898123070839</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9482,10 +9482,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298235</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>461.830509216993</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>548.8576414812761</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>268.0669951958124</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298236</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N26" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>300.4142109955935</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>179.6167914733354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>571.3293238908516</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>268.1828480767089</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>452.4011488286619</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>462.4589018454977</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>450.7747902674471</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>452.5855512828691</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>549.2245073196785</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
-        <v>451.1348640772358</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>180.7888499740234</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P44" t="n">
-        <v>548.1209608588841</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>459.4832504061478</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22609,10 +22609,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>248.9949814519883</v>
+        <v>260.4518772149075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -22764,16 +22764,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>154.1316886568268</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>89.21760100306955</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>144.1501129325528</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>392.2210021903359</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22947,19 +22947,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>25.06095076655902</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>50.46150587367103</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>185.5008388340474</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>339.3308469547508</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>101.4207812742432</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>45.89744421595991</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.3306541137075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>63.83982611680005</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.93173177419166</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>144.6849832771895</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>309.3306541137074</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>68.63024747217656</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>90.7728684026323</v>
       </c>
       <c r="T16" t="n">
-        <v>101.420781274243</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.1077004961741</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23752,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.6064085940741</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23901,13 +23901,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>86.93357140528606</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24025,19 +24025,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>16.88440653490906</v>
       </c>
       <c r="V20" t="n">
-        <v>295.2370319744285</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>48.31958288295797</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24220,13 +24220,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
@@ -24265,10 +24265,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>229.6766462339666</v>
       </c>
       <c r="W23" t="n">
-        <v>300.0465331945456</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402026</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>236.2122059901209</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>274.5283261034653</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.84759645906215</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.4739695386594</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24739,13 +24739,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>279.8828231122594</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>3.344303445676587</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.3281253757179</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>397.1533092008302</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>183.8237304104036</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>291.9150966871105</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25213,16 +25213,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>322.2930516891525</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>259.0715533808254</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>160.0388264952287</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153.5404824280147</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25642,13 +25642,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>117.9570558621666</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>59.07277846044514</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>329.3362674455102</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>239.9962659630853</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>90.28170816354726</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436145.8731875207</v>
+        <v>436145.8731875206</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436145.8731875207</v>
+        <v>491447.4090335224</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436145.8731875207</v>
+        <v>491447.4090335225</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436145.8731875207</v>
+        <v>491447.4090335225</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491447.4090335223</v>
+        <v>491447.4090335225</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491447.4090335223</v>
+        <v>491447.4090335225</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491447.4090335223</v>
+        <v>491447.4090335225</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491447.4090335223</v>
+        <v>491447.4090335222</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491447.4090335222</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491447.4090335222</v>
+        <v>491447.4090335225</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491447.4090335222</v>
+        <v>491447.4090335223</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97727.09030973139</v>
+        <v>97727.09030973137</v>
       </c>
       <c r="C2" t="n">
-        <v>97727.09030973141</v>
+        <v>97727.09030973136</v>
       </c>
       <c r="D2" t="n">
-        <v>97727.09030973143</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="E2" t="n">
-        <v>97727.09030973139</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="F2" t="n">
-        <v>97727.09030973141</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="G2" t="n">
         <v>110117.9244799721</v>
@@ -26337,7 +26337,7 @@
         <v>110117.9244799721</v>
       </c>
       <c r="J2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="K2" t="n">
         <v>110117.9244799721</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29456.39286176439</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746637</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427568</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24000.08990045009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295062</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8050.273149146122</v>
+        <v>8050.273149146124</v>
       </c>
       <c r="C4" t="n">
-        <v>8050.273149146122</v>
+        <v>8050.273149146124</v>
       </c>
       <c r="D4" t="n">
-        <v>8050.273149146123</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="E4" t="n">
-        <v>8050.273149146124</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="F4" t="n">
-        <v>8050.273149146124</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="G4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="H4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="I4" t="n">
         <v>9081.116486988822</v>
       </c>
       <c r="J4" t="n">
-        <v>9081.116486988818</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="K4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="L4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="M4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="N4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="O4" t="n">
-        <v>9081.116486988818</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="P4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>61680.71427022832</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126629.6177277635</v>
+        <v>-127333.9775492551</v>
       </c>
       <c r="C6" t="n">
-        <v>27996.10289035698</v>
+        <v>27291.7430688654</v>
       </c>
       <c r="D6" t="n">
-        <v>27996.102890357</v>
+        <v>3525.118381301206</v>
       </c>
       <c r="E6" t="n">
-        <v>61623.70289035694</v>
+        <v>66609.11124306553</v>
       </c>
       <c r="F6" t="n">
-        <v>61623.70289035697</v>
+        <v>66609.11124306553</v>
       </c>
       <c r="G6" t="n">
-        <v>41227.2499680888</v>
+        <v>66609.11124306553</v>
       </c>
       <c r="H6" t="n">
-        <v>67218.1569555552</v>
+        <v>66609.11124306555</v>
       </c>
       <c r="I6" t="n">
-        <v>67218.15695555517</v>
+        <v>66609.11124306552</v>
       </c>
       <c r="J6" t="n">
-        <v>-53504.35998720168</v>
+        <v>-54113.40569969134</v>
       </c>
       <c r="K6" t="n">
-        <v>67218.15695555518</v>
+        <v>66609.1112430655</v>
       </c>
       <c r="L6" t="n">
-        <v>67218.15695555518</v>
+        <v>42609.02134261545</v>
       </c>
       <c r="M6" t="n">
-        <v>67218.15695555515</v>
+        <v>66609.11124306552</v>
       </c>
       <c r="N6" t="n">
-        <v>67218.15695555515</v>
+        <v>66609.1112430655</v>
       </c>
       <c r="O6" t="n">
-        <v>44397.72622260459</v>
+        <v>66609.11124306553</v>
       </c>
       <c r="P6" t="n">
-        <v>67218.15695555514</v>
+        <v>66609.11124306553</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525975</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175906</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>77.94592742031445</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>77.94592742031456</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>352.3878357835379</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>324.0137127175906</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603341</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35345,13 +35345,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603341</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>442.7574853255733</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603341</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35585,10 +35585,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35822,10 +35822,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36053,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>415.0101894726379</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36202,10 +36202,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155939</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>510.5455990486532</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>245.6677613624791</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>263.0232516395694</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>245.6677613624793</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>415.0101894726378</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>440.0596680121644</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
-        <v>415.0101894726378</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P44" t="n">
-        <v>510.5455990486528</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>437.0840165728145</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
